--- a/GameDesign/Eserciti.xlsx
+++ b/GameDesign/Eserciti.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\Videogiochi\Strategy game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unitiy projects\Strategy-game\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1112,7 +1112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Eserciti.xlsx
+++ b/GameDesign/Eserciti.xlsx
@@ -353,32 +353,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Explosive Shell </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(melee attack, fire element, Att 6; self damage: fire element, Att 3, precision 0.2): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the shells are filled with gunpowder and can create dangerous explosions while attacking. This is a risky move, the unit receive in fact a damage due to the runaway explosions. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Bubble cannon </t>
     </r>
     <r>
@@ -962,6 +936,32 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explosive Shell </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(melee attack, fire element, Att + 1.5; self damage: fire element, Att 3, precision 0.2): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the shells are filled with gunpowder and can create dangerous explosions while attacking. This is a risky move, the unit receive in fact a damage due to the runaway explosions. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1688,10 +1688,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>29</v>
@@ -1699,12 +1699,12 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
         <v>18</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1837,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1886,17 +1886,17 @@
         <v>1</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H42" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H43" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="H23" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="H25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="H26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="H27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2268,13 +2268,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="H35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2288,12 +2288,12 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="H36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="9">
         <v>4</v>
